--- a/全栈进阶/数据库.xlsx
+++ b/全栈进阶/数据库.xlsx
@@ -18,6 +18,89 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>MongoDB安装和使用</t>
+  </si>
+  <si>
+    <t>MongoDB的系统架构</t>
+  </si>
+  <si>
+    <t>MongoDB高级查询</t>
+  </si>
+  <si>
+    <t>MongoDB索引</t>
+  </si>
+  <si>
+    <t>安全与权限</t>
+  </si>
+  <si>
+    <t>MongoDB模块绘制 Schenma</t>
+  </si>
+  <si>
+    <t>MongoDB模块值 Model</t>
+  </si>
+  <si>
+    <t>安装和使用</t>
+  </si>
+  <si>
+    <t>系统架构</t>
+  </si>
+  <si>
+    <t>数据处理值增删查改</t>
+  </si>
+  <si>
+    <t>数据类型和约束分页</t>
+  </si>
+  <si>
+    <t>索引和慢查询性能分析</t>
+  </si>
+  <si>
+    <t>数据库安全- 防止 SQL注入</t>
+  </si>
+  <si>
+    <t>数据库设计ER图设计</t>
+  </si>
+  <si>
+    <t>数据库事务和锁</t>
+  </si>
+  <si>
+    <t>数据库设计只三大范式</t>
+  </si>
+  <si>
+    <t>分组和聚合函数</t>
+  </si>
+  <si>
+    <t>基于角色的权限访问控制</t>
+  </si>
+  <si>
+    <t>role based access Control</t>
+  </si>
+  <si>
+    <t>5种数据结构及使用场景</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  API的理解和使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  redis客户端</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  发布订阅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  事务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  备份和恢复</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  redis实战应用</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +423,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -354,12 +500,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -367,12 +551,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
